--- a/src/assets/file/question.xlsx
+++ b/src/assets/file/question.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (4)\src\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -114,7 +114,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,13 +143,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,22 +446,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,255 +511,226 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>6</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>5</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>6</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/file/question.xlsx
+++ b/src/assets/file/question.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Question</t>
   </si>
@@ -42,27 +42,6 @@
   </si>
   <si>
     <t>Example of defensive coding?</t>
-  </si>
-  <si>
-    <t>Describe how you apply defensive coding at file level?</t>
-  </si>
-  <si>
-    <t>Write a methods to convert string to number.</t>
-  </si>
-  <si>
-    <t>Describe the APIs you used?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How indexes are stored internally? </t>
-  </si>
-  <si>
-    <t>Describe your favorite ORM tools?</t>
-  </si>
-  <si>
-    <t>answer e</t>
-  </si>
-  <si>
-    <t>answer f</t>
   </si>
   <si>
     <t>Answer_1</t>
@@ -135,27 +114,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -164,8 +128,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +413,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,40 +438,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -544,189 +508,75 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2">
-        <v>6</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="2">
-        <v>5</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="2">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="2">
-        <v>5</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="2">
-        <v>6</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="2">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>

--- a/src/assets/file/question.xlsx
+++ b/src/assets/file/question.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Question</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Point_5</t>
+  </si>
+  <si>
+    <t>answer e</t>
+  </si>
+  <si>
+    <t>answer f</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,10 +508,18 @@
       <c r="I2" s="2">
         <v>4</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>

--- a/src/assets/file/question.xlsx
+++ b/src/assets/file/question.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,11 +430,11 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
@@ -597,6 +597,11 @@
       <c r="M7" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 E2:E1048576 G2:G1048576 I2:I1048576 K2:K1048576 M2:M1048576">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/assets/file/question.xlsx
+++ b/src/assets/file/question.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Question</t>
   </si>
@@ -41,24 +41,9 @@
     <t>answer d</t>
   </si>
   <si>
-    <t>Example of defensive coding?</t>
-  </si>
-  <si>
     <t>Describe how you apply defensive coding at file level?</t>
   </si>
   <si>
-    <t>Write a methods to convert string to number.</t>
-  </si>
-  <si>
-    <t>Describe the APIs you used?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How indexes are stored internally? </t>
-  </si>
-  <si>
-    <t>Describe your favorite ORM tools?</t>
-  </si>
-  <si>
     <t>answer e</t>
   </si>
   <si>
@@ -99,9 +84,6 @@
   </si>
   <si>
     <t>Point_5</t>
-  </si>
-  <si>
-    <t>Describe your favorite ORM tools?s</t>
   </si>
 </sst>
 </file>
@@ -433,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,40 +440,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -522,232 +504,22 @@
       <c r="I2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3">
+      <c r="K2">
         <v>5</v>
       </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3">
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 M2:M1048576 E2:E1048576 G2:G1048576 K2:K1048576 I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 K2:K1048576 G2:G1048576 E2:E1048576 M2:M1048576 C2:C1048576">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/assets/file/question.xlsx
+++ b/src/assets/file/question.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4620" tabRatio="699" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Software Development Methods " sheetId="2" r:id="rId1"/>
+    <sheet name="Software Requirement Analysis" sheetId="1" r:id="rId2"/>
+    <sheet name="Software Programming Methods" sheetId="6" r:id="rId3"/>
+    <sheet name="Software Technology" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal Skills" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -24,73 +28,619 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="202">
   <si>
     <t>Question</t>
   </si>
   <si>
-    <t>answer a</t>
-  </si>
-  <si>
-    <t>answer b</t>
-  </si>
-  <si>
-    <t>answer c</t>
-  </si>
-  <si>
-    <t>answer d</t>
-  </si>
-  <si>
-    <t>Describe how you apply defensive coding at file level?</t>
-  </si>
-  <si>
-    <t>answer e</t>
-  </si>
-  <si>
-    <t>answer f</t>
-  </si>
-  <si>
-    <t>Answer_1</t>
-  </si>
-  <si>
-    <t>Point_1</t>
-  </si>
-  <si>
-    <t>Answer_2</t>
-  </si>
-  <si>
-    <t>Point_2</t>
-  </si>
-  <si>
-    <t>Answer_3</t>
-  </si>
-  <si>
-    <t>Answer_4</t>
-  </si>
-  <si>
-    <t>Answer_5</t>
-  </si>
-  <si>
-    <t>Answer_6</t>
-  </si>
-  <si>
-    <t>Point_6</t>
-  </si>
-  <si>
-    <t>Point_3</t>
-  </si>
-  <si>
-    <t>Point_4</t>
-  </si>
-  <si>
-    <t>Point_5</t>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>QuestionPoint</t>
+  </si>
+  <si>
+    <t>None of the mentioned</t>
+  </si>
+  <si>
+    <t>Non-Functional</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Which of the following is not a diagram studied in Requirement Analysis ?</t>
+  </si>
+  <si>
+    <t>Use Cases</t>
+  </si>
+  <si>
+    <t>Entity Relationship Diagram</t>
+  </si>
+  <si>
+    <t>State Transition Diagram</t>
+  </si>
+  <si>
+    <t>Activity Diagram</t>
+  </si>
+  <si>
+    <t>How many feasibility studies is conducted in Requirement Analysis ?</t>
+  </si>
+  <si>
+    <t>How many phases are there in Requirement Analysis ?</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>Requirements analysis is critical to the success of a development project.</t>
+  </si>
+  <si>
+    <t>Depends upon the size of project</t>
+  </si>
+  <si>
+    <t> _________ and _________ are the two issues of Requirement Analysis.</t>
+  </si>
+  <si>
+    <t>Performance, Design</t>
+  </si>
+  <si>
+    <t>Stakeholder, Developer</t>
+  </si>
+  <si>
+    <t>Functional, Non-Functional</t>
+  </si>
+  <si>
+    <t>The requirements that result from requirements analysis are typically expressed from one of three perspectives or views.WhaT is that perspective or view ?</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Coad and Yourdon suggested _______ selection characteristics that should be used as an analyst considers each potential object for inclusion in the requirement analysis model.</t>
+  </si>
+  <si>
+    <t>Planning the test, executing the test, end of test.</t>
+  </si>
+  <si>
+    <t>What is the flow in software testing?</t>
+  </si>
+  <si>
+    <t>Planning the test, Developing the test case, Setting up the test environment, Executing the test, End of test.</t>
+  </si>
+  <si>
+    <t>Planning the test, Setting up the test environment, Developing the test case, End of test.</t>
+  </si>
+  <si>
+    <t>Planning the test, Developing the test case, Setting up the test environment, End of test.</t>
+  </si>
+  <si>
+    <t>What is non-functional requirements?</t>
+  </si>
+  <si>
+    <t>How the system should react to the particular inputs</t>
+  </si>
+  <si>
+    <t>How the system should behave to the particular situations</t>
+  </si>
+  <si>
+    <t>What the system should not do</t>
+  </si>
+  <si>
+    <t>Constraints on the services or functions</t>
+  </si>
+  <si>
+    <t>What is functional requirements?</t>
+  </si>
+  <si>
+    <t>What the system should not do.</t>
+  </si>
+  <si>
+    <t>Constraints on the services or functions.</t>
+  </si>
+  <si>
+    <t>Time constraints.</t>
+  </si>
+  <si>
+    <t>Constraints on the development process</t>
+  </si>
+  <si>
+    <t>What is a class?</t>
+  </si>
+  <si>
+    <t>A class is a template for defining objects that specifies variables, and procedures that operate on those variables.</t>
+  </si>
+  <si>
+    <t>A class is an entity that determines how an object will behave and what the object will contain.</t>
+  </si>
+  <si>
+    <t>A class is a software unit of variables (properties) and methods (functions).</t>
+  </si>
+  <si>
+    <t>What is a object?</t>
+  </si>
+  <si>
+    <t>Objects are members, or instances, of a class formed by assigning specific values to the variables in the class.</t>
+  </si>
+  <si>
+    <t>Object is a software unit of variables (properties) and methods (functions).</t>
+  </si>
+  <si>
+    <t>Object is a software unit of variables (properties) and methods (functions). These objects are often used to model the real-world objects that you find in everyday life.</t>
+  </si>
+  <si>
+    <t>Define Stakeholder</t>
+  </si>
+  <si>
+    <t>Business Managers, end-users, software engineer, support people</t>
+  </si>
+  <si>
+    <t>Anyone who has stake in successful outcome of Project</t>
+  </si>
+  <si>
+    <t>What is the Requirements Engineering Process Functions?</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>Elicitation</t>
+  </si>
+  <si>
+    <t>Elaboration</t>
+  </si>
+  <si>
+    <t>All of others</t>
+  </si>
+  <si>
+    <t>Provides roadmap for instituting SQA</t>
+  </si>
+  <si>
+    <t>Define SQA Plan</t>
+  </si>
+  <si>
+    <t>Defines all external producers, external consumers and entities that communicate through User Interface</t>
+  </si>
+  <si>
+    <t>Define System Context Diagram[SCD]?</t>
+  </si>
+  <si>
+    <t>Establish information boundary between System being implemented and Environment which system operate</t>
+  </si>
+  <si>
+    <t>Indicates Information flow across SCD region</t>
+  </si>
+  <si>
+    <t>Used to guide system engineer in developing system</t>
+  </si>
+  <si>
+    <t>Maintainability</t>
+  </si>
+  <si>
+    <t>Flexibility</t>
+  </si>
+  <si>
+    <t>Polymorphism</t>
+  </si>
+  <si>
+    <t>When sub class declares a method that has the same type arguments as a method declared by one of its superclasses, it is termed as:</t>
+  </si>
+  <si>
+    <t>Operator overriding</t>
+  </si>
+  <si>
+    <t>Operator overloading</t>
+  </si>
+  <si>
+    <t>Method overriding</t>
+  </si>
+  <si>
+    <t>Method overloading</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Abstract,public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What modifiers are allowed for methods in an Interface? </t>
+  </si>
+  <si>
+    <t>An _______ cannot provide any code at all, can provide only the signature.</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Abstract class</t>
+  </si>
+  <si>
+    <t>An object that has more than one form is referred to as:</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Information Hiding can also be termed as:</t>
+  </si>
+  <si>
+    <t>Encapsulation</t>
+  </si>
+  <si>
+    <t>Data hiding</t>
+  </si>
+  <si>
+    <t>The process by which one object can acquire the properties of another object:</t>
+  </si>
+  <si>
+    <t>Constructors are used to:</t>
+  </si>
+  <si>
+    <t>Initialize a newly created object.</t>
+  </si>
+  <si>
+    <t>To create a sub class.</t>
+  </si>
+  <si>
+    <t>To build a user interface.</t>
+  </si>
+  <si>
+    <t>Free memory.</t>
+  </si>
+  <si>
+    <t>Keyword which is used to access the method or member variables from the superclass:</t>
+  </si>
+  <si>
+    <t>Using</t>
+  </si>
+  <si>
+    <t>Is_a</t>
+  </si>
+  <si>
+    <t>Has_a</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>Pick the term that relates to polymorphism:</t>
+  </si>
+  <si>
+    <t>Static allocation</t>
+  </si>
+  <si>
+    <t>Dynamic allocation</t>
+  </si>
+  <si>
+    <t>Dynamic binding</t>
+  </si>
+  <si>
+    <t>Static typing</t>
+  </si>
+  <si>
+    <t>What is the meaning of the acronym CPU ?</t>
+  </si>
+  <si>
+    <t>Centrally Provided Users</t>
+  </si>
+  <si>
+    <t>Centric Processing Unit</t>
+  </si>
+  <si>
+    <t>Central Processing Unit</t>
+  </si>
+  <si>
+    <t>Creepy Pointed Unit</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>What is recognized as the main circuit board in a computer ?</t>
+  </si>
+  <si>
+    <t>The graphics card</t>
+  </si>
+  <si>
+    <t>The sound card</t>
+  </si>
+  <si>
+    <t>The CPU</t>
+  </si>
+  <si>
+    <t>The motherboard</t>
+  </si>
+  <si>
+    <t>The power supply unit</t>
+  </si>
+  <si>
+    <t>Where would you most likely find a CPU ?</t>
+  </si>
+  <si>
+    <t>On a mailbox</t>
+  </si>
+  <si>
+    <t>On top of a computer</t>
+  </si>
+  <si>
+    <t>In Drama class</t>
+  </si>
+  <si>
+    <t>On a motherboard</t>
+  </si>
+  <si>
+    <t>In a sandwich</t>
+  </si>
+  <si>
+    <t>What does the acronym RAM stand for ?</t>
+  </si>
+  <si>
+    <t>Random Access Memory</t>
+  </si>
+  <si>
+    <t>Random Archival Method</t>
+  </si>
+  <si>
+    <t>Really Awful Methods</t>
+  </si>
+  <si>
+    <t>Rotating Arm Memory</t>
+  </si>
+  <si>
+    <t>Rotary Archival Method</t>
+  </si>
+  <si>
+    <t>What describes a Network in computer terms ?</t>
+  </si>
+  <si>
+    <t>A group of friends talking the phone</t>
+  </si>
+  <si>
+    <t>A group of computers working together</t>
+  </si>
+  <si>
+    <t>Anyone doing work</t>
+  </si>
+  <si>
+    <t>A school</t>
+  </si>
+  <si>
+    <t>All the people who support phone calls on cellular phones</t>
+  </si>
+  <si>
+    <t>What best describes computer hardware?</t>
+  </si>
+  <si>
+    <t>All the visible parts of the computer</t>
+  </si>
+  <si>
+    <t>All the physical components of the computer</t>
+  </si>
+  <si>
+    <t>All the parts of the computer that you use to input data</t>
+  </si>
+  <si>
+    <t>The printer</t>
+  </si>
+  <si>
+    <t>The computer case</t>
+  </si>
+  <si>
+    <t>What is the term given to the computer code that works to support your use of the computer ?</t>
+  </si>
+  <si>
+    <t>The Matrix</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>An Operating System</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>What is the meaning of the acronym GUI</t>
+  </si>
+  <si>
+    <t>Great User Intimidation</t>
+  </si>
+  <si>
+    <t>Graphical User Interface</t>
+  </si>
+  <si>
+    <t>Graphics Users Incorporated</t>
+  </si>
+  <si>
+    <t>Great Ugly Illnesses</t>
+  </si>
+  <si>
+    <t>Good Users Invited</t>
+  </si>
+  <si>
+    <t>A process is responsible for changing the format of information so that the information cannot be directly read, and can be kept private. This process is the process of ...</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>Decryption</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Transferring</t>
+  </si>
+  <si>
+    <t>Encryption</t>
+  </si>
+  <si>
+    <t>A FIREWALL is used to ..</t>
+  </si>
+  <si>
+    <t>Protect computer systems against unwanted invaders</t>
+  </si>
+  <si>
+    <t>Put out fires in computer rooms</t>
+  </si>
+  <si>
+    <t>An exercise utility for computer programmers</t>
+  </si>
+  <si>
+    <t>A way to stay warm in computer labs</t>
+  </si>
+  <si>
+    <t>A way to tell tech support that the computer is broken</t>
+  </si>
+  <si>
+    <t>Which one of the following is a functional requirement ?</t>
+  </si>
+  <si>
+    <t>Which one of the following is a requirement that fits in a developer’s module ?</t>
+  </si>
+  <si>
+    <t>“Consider a system where, a heat sensor detects an intrusion and alerts the security company.” What kind of a requirement the system is providing ?</t>
+  </si>
+  <si>
+    <t>Which of the following statements explains portability in non-functional requirements?</t>
+  </si>
+  <si>
+    <t>Choose the incorrect statement with respect to Non-Functional Requirement(NFR).</t>
+  </si>
+  <si>
+    <t>How many classification schemes have been developed for NFRs ?</t>
+  </si>
+  <si>
+    <t>According to components of FURPS+, which of the following does not belong to S ?</t>
+  </si>
+  <si>
+    <t>What are the four dimensions of Dependability ?</t>
+  </si>
+  <si>
+    <t>Choose the correct statement on how NFRs integrates with Rational Unified Process ?</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>It is a degree to which software running on one platform can easily be converted to run on another platform</t>
+  </si>
+  <si>
+    <t>Product-oriented Approach – Focus on system (or software) quality</t>
+  </si>
+  <si>
+    <t>Testability</t>
+  </si>
+  <si>
+    <t>Usability, Reliability, Security, Flexibility</t>
+  </si>
+  <si>
+    <t>System responds within 4 seconds on average to local user requests and changes in the environment</t>
+  </si>
+  <si>
+    <t>Portability</t>
+  </si>
+  <si>
+    <t>It cannot be enhanced by using languages, OS’ and tools that are universally available and standardized</t>
+  </si>
+  <si>
+    <t>Process-oriented Approach – Focus on how NFRs can be used in the design process</t>
+  </si>
+  <si>
+    <t>Speed Efficiency</t>
+  </si>
+  <si>
+    <t>Availability, Reliability, Maintainability, Security</t>
+  </si>
+  <si>
+    <t>System responds within 4 seconds on average to remote user requests and changes in the environment</t>
+  </si>
+  <si>
+    <t>Robustness</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Known Requirement</t>
+  </si>
+  <si>
+    <t>The ability of the system to behave consistently in a user-acceptable manner when operating within the environment for which the system was intended</t>
+  </si>
+  <si>
+    <t>Quantitative Approach – Find measurable scales for the functionality attributes</t>
+  </si>
+  <si>
+    <t>Serviceability</t>
+  </si>
+  <si>
+    <t>Availability, Reliability, Security, Safety</t>
+  </si>
+  <si>
+    <t>All of the mentioned</t>
+  </si>
+  <si>
+    <t>Qualitative Approach – Study various relationships between quality goals</t>
+  </si>
+  <si>
+    <t>Installability</t>
+  </si>
+  <si>
+    <t>Security, Safety, Testability, Usability</t>
+  </si>
+  <si>
+    <t>Question text</t>
+  </si>
+  <si>
+    <t>answer text 1</t>
+  </si>
+  <si>
+    <t>answer text 2</t>
+  </si>
+  <si>
+    <t>answer text 3</t>
+  </si>
+  <si>
+    <t>answer text 4</t>
+  </si>
+  <si>
+    <t>answer text 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,11 +649,82 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2D3639"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -120,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,13 +749,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,115 +1106,1905 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7">
+        <v>100</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7">
+        <v>100</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="7">
+        <v>100</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="7">
+        <v>80</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="7">
+        <v>50</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="7">
+        <v>80</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="7">
+        <v>100</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="9">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="9">
+        <v>50</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="9">
+        <v>100</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="6">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="7">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="7">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="7">
+        <v>25</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="6">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="7">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2">
-        <v>6</v>
-      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="7">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 K2:K1048576 G2:G1048576 E2:E1048576 M2:M1048576 C2:C1048576">
-      <formula1>"1,2,3,4,5,6"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7">
+        <v>100</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7">
+        <v>100</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>100</v>
+      </c>
+      <c r="E5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7">
+        <v>100</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="24">
+        <v>100</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="24">
+        <v>100</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="24">
+        <v>100</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="24">
+        <v>100</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="J13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="8">
+        <v>7</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="24">
+        <v>0</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="6">
+        <v>8</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="24">
+        <v>100</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H15" s="24">
+        <v>0</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="24">
+        <v>100</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="24">
+        <v>100</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="24">
+        <v>0</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="7">
+        <v>100</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="7">
+        <v>100</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="7">
+        <v>100</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="9">
+        <v>100</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="6">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="7">
+        <v>100</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="7">
+        <v>100</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="7">
+        <v>100</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="7">
+        <v>100</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="7">
+        <v>100</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="7">
+        <v>100</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="7">
+        <v>100</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="7">
+        <v>100</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="9">
+        <v>100</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="6">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="7">
+        <v>100</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="7">
+        <v>100</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="7">
+        <v>100</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="7">
+        <v>100</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="28">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="29">
+        <v>0</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="29">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="29">
+        <v>100</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="29">
+        <v>0</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="L2" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>